--- a/SaniPII.xlsx
+++ b/SaniPII.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GAIC\EISG\Common\CTT\Red Team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dburns6\Desktop\Github\DataExfil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6510" uniqueCount="2082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6510" uniqueCount="2083">
   <si>
     <t>0001-2010-NS00031</t>
   </si>
@@ -6270,6 +6270,9 @@
   </si>
   <si>
     <t>214-902-6322</t>
+  </si>
+  <si>
+    <t>Hughes</t>
   </si>
 </sst>
 </file>
@@ -6591,7 +6594,7 @@
   <dimension ref="A1:AR301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6951,7 +6954,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>2082</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
